--- a/src/private/templates/rfq_requested_products.xlsx
+++ b/src/private/templates/rfq_requested_products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamarbattulga/Documents/works/ot/backend/src/private/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,38 +26,44 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>shortText</t>
-  </si>
-  <si>
-    <t>manufacturerPartNumber</t>
-  </si>
-  <si>
-    <t>purchaseRequestNumber</t>
+    <t>OT Material Code</t>
+  </si>
+  <si>
+    <t>Purchase Request Number</t>
+  </si>
+  <si>
+    <t>Short Text</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,27 +379,27 @@
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
